--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Python_Data_Project\Grocery_list\Excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5C8E0-46EE-47C4-A135-80F3E52212DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F46BC5-4B2F-4C6A-83F6-45880DFFCB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10158" yWindow="270" windowWidth="12498" windowHeight="11802" activeTab="1" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
@@ -5352,8 +5352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD61BB9-6DAA-4988-9059-527D17889229}">
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5437,8 +5437,12 @@
       <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>51.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
       <c r="F4" t="s">
         <v>178</v>
       </c>
@@ -5453,8 +5457,12 @@
       <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2">
+        <v>180</v>
+      </c>
+      <c r="E5" s="2">
+        <v>23</v>
+      </c>
       <c r="F5" t="s">
         <v>199</v>
       </c>
@@ -5529,8 +5537,12 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.05</v>
+      </c>
       <c r="F9" t="s">
         <v>200</v>
       </c>
@@ -5545,8 +5557,12 @@
       <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="F10" t="s">
         <v>175</v>
       </c>
@@ -5561,8 +5577,12 @@
       <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2">
+        <v>396</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.9</v>
+      </c>
       <c r="F11" t="s">
         <v>163</v>
       </c>
@@ -5577,8 +5597,12 @@
       <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
       <c r="F12" t="s">
         <v>166</v>
       </c>
@@ -5593,8 +5617,12 @@
       <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <v>352</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
       <c r="F13" t="s">
         <v>201</v>
       </c>
@@ -5669,8 +5697,12 @@
       <c r="C17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
       <c r="F17" t="s">
         <v>167</v>
       </c>
@@ -5685,8 +5717,12 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2">
+        <v>158</v>
+      </c>
+      <c r="E18" s="2">
+        <v>12.9</v>
+      </c>
       <c r="F18" t="s">
         <v>196</v>
       </c>
@@ -5701,8 +5737,12 @@
       <c r="C19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2">
+        <v>290</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>168</v>
       </c>
@@ -5717,8 +5757,12 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
       <c r="F20" t="s">
         <v>202</v>
       </c>
@@ -5733,8 +5777,12 @@
       <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2">
+        <v>328</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14</v>
+      </c>
       <c r="F21" t="s">
         <v>204</v>
       </c>
@@ -5749,8 +5797,12 @@
       <c r="C22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2">
+        <v>273</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.5</v>
+      </c>
       <c r="F22" t="s">
         <v>203</v>
       </c>
@@ -5785,8 +5837,12 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2">
+        <v>102</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.2</v>
+      </c>
       <c r="F24" t="s">
         <v>205</v>
       </c>
@@ -5861,8 +5917,12 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
       <c r="F28" t="s">
         <v>209</v>
       </c>
@@ -5877,8 +5937,12 @@
       <c r="C29" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2">
+        <v>60</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.4</v>
+      </c>
       <c r="F29" t="s">
         <v>210</v>
       </c>
@@ -5893,8 +5957,12 @@
       <c r="C30" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.8</v>
+      </c>
       <c r="F30" t="s">
         <v>184</v>
       </c>
@@ -5909,8 +5977,12 @@
       <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.4</v>
+      </c>
       <c r="F31" t="s">
         <v>192</v>
       </c>
@@ -5959,6 +6031,12 @@
       <c r="C34" t="s">
         <v>32</v>
       </c>
+      <c r="D34" s="2">
+        <v>118</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5.4</v>
+      </c>
       <c r="F34" t="s">
         <v>211</v>
       </c>
@@ -5973,6 +6051,12 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
+      <c r="D35" s="2">
+        <v>289</v>
+      </c>
+      <c r="E35" s="2">
+        <v>25</v>
+      </c>
       <c r="F35" t="s">
         <v>195</v>
       </c>
@@ -6007,8 +6091,12 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.3</v>
+      </c>
       <c r="F37" t="s">
         <v>161</v>
       </c>
@@ -6023,8 +6111,12 @@
       <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2">
+        <v>573</v>
+      </c>
+      <c r="E38" s="2">
+        <v>26</v>
+      </c>
       <c r="F38" t="s">
         <v>165</v>
       </c>
@@ -6039,8 +6131,12 @@
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2">
+        <v>280.5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="F39" t="s">
         <v>164</v>
       </c>
@@ -6055,8 +6151,12 @@
       <c r="C40" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.3</v>
+      </c>
       <c r="F40" t="s">
         <v>170</v>
       </c>
@@ -6182,8 +6282,12 @@
       <c r="C47" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2">
+        <v>18</v>
+      </c>
       <c r="F47" t="s">
         <v>171</v>
       </c>
@@ -6198,8 +6302,12 @@
       <c r="C48" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2">
+        <v>152</v>
+      </c>
+      <c r="E48" s="2">
+        <v>28</v>
+      </c>
       <c r="F48" t="s">
         <v>189</v>
       </c>
@@ -6214,8 +6322,12 @@
       <c r="C49" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="2">
+        <v>62</v>
+      </c>
+      <c r="E49" s="2">
+        <v>11</v>
+      </c>
       <c r="F49" t="s">
         <v>159</v>
       </c>
@@ -6230,8 +6342,12 @@
       <c r="C50" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
       <c r="F50" t="s">
         <v>215</v>
       </c>
@@ -6246,8 +6362,12 @@
       <c r="C51" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2">
+        <v>354</v>
+      </c>
+      <c r="E51" s="2">
+        <v>11.8</v>
+      </c>
       <c r="F51" t="s">
         <v>216</v>
       </c>
@@ -6262,8 +6382,12 @@
       <c r="C52" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
       <c r="F52" t="s">
         <v>160</v>
       </c>
@@ -6298,8 +6422,12 @@
       <c r="C54" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2">
+        <v>399</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.01</v>
+      </c>
       <c r="F54" t="s">
         <v>217</v>
       </c>
@@ -6314,8 +6442,12 @@
       <c r="C55" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2">
+        <v>126.4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>24</v>
+      </c>
       <c r="F55" t="s">
         <v>191</v>
       </c>
@@ -6370,8 +6502,12 @@
       <c r="C58" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2">
+        <v>287</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.1</v>
+      </c>
       <c r="F58" t="s">
         <v>218</v>
       </c>
@@ -6386,8 +6522,12 @@
       <c r="C59" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="2">
+        <v>51</v>
+      </c>
+      <c r="E59" s="2">
+        <v>4</v>
+      </c>
       <c r="F59" t="s">
         <v>197</v>
       </c>
@@ -6402,8 +6542,12 @@
       <c r="C60" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="D60" s="2">
+        <v>319</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F60" t="s">
         <v>194</v>
       </c>
@@ -6438,8 +6582,12 @@
       <c r="C62" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="2">
+        <v>289</v>
+      </c>
+      <c r="E62" s="2">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="F62" t="s">
         <v>188</v>
       </c>
@@ -6454,8 +6602,12 @@
       <c r="C63" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="2">
+        <v>57</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9.5</v>
+      </c>
       <c r="F63" t="s">
         <v>169</v>
       </c>
@@ -6470,8 +6622,12 @@
       <c r="C64" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2">
+        <v>122</v>
+      </c>
+      <c r="E64" s="2">
+        <v>21</v>
+      </c>
       <c r="F64" t="s">
         <v>219</v>
       </c>
@@ -6506,8 +6662,12 @@
       <c r="C66" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="2">
+        <v>33</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3.3</v>
+      </c>
       <c r="F66" t="s">
         <v>193</v>
       </c>

--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F46BC5-4B2F-4C6A-83F6-45880DFFCB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AA309-95A9-4B79-AAE7-745919D55B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10158" yWindow="270" windowWidth="12498" windowHeight="11802" activeTab="1" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="222">
   <si>
     <t>recipe_name</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>https://www.collectandgo.be/colruyt/nl/assortiment/everyday-fijn-keukenzout-1kg</t>
+  </si>
+  <si>
+    <t>Omurice met Tofu</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913751C-1BC7-493E-BB20-B30D7F548B56}">
   <dimension ref="A1:D1029"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2564,69 +2567,212 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C107" s="2"/>
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="2">
+        <v>64</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C108" s="2"/>
+      <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C109" s="2"/>
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C110" s="2"/>
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C111" s="2"/>
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="2">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="2">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>221</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="2">
+        <v>100</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.55000000000000004">
@@ -5352,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD61BB9-6DAA-4988-9059-527D17889229}">
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>

--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AA309-95A9-4B79-AAE7-745919D55B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8003F0D1-FA38-4C9E-B137-5F12A0147D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="225">
   <si>
     <t>recipe_name</t>
   </si>
@@ -696,6 +696,15 @@
   </si>
   <si>
     <t>Omurice met Tofu</t>
+  </si>
+  <si>
+    <t>Gele Kiwi</t>
+  </si>
+  <si>
+    <t>https://fic.colruytgroup.com/productinfo/nl/cogo/4725697</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=kiwi#pdp_3074457345616816101</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913751C-1BC7-493E-BB20-B30D7F548B56}">
   <dimension ref="A1:D1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
@@ -5498,8 +5507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD61BB9-6DAA-4988-9059-527D17889229}">
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6819,8 +6828,24 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67">
+        <v>540</v>
+      </c>
+      <c r="C67" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" s="2"/>

--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8003F0D1-FA38-4C9E-B137-5F12A0147D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38723BF7-70D2-48EC-9D0F-DB0A1468F3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="229">
   <si>
     <t>recipe_name</t>
   </si>
@@ -705,6 +705,18 @@
   </si>
   <si>
     <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=kiwi#pdp_3074457345616816101</t>
+  </si>
+  <si>
+    <t>Granaatappel</t>
+  </si>
+  <si>
+    <t>https://fic.colruytgroup.com/productinfo/nl/cogo/3148818</t>
+  </si>
+  <si>
+    <t>Peer</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=peer#pdp_3074457345616678933</t>
   </si>
 </sst>
 </file>
@@ -5507,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD61BB9-6DAA-4988-9059-527D17889229}">
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6848,12 +6860,44 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="2">
+        <v>88</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="2">
+        <v>55</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" s="2"/>

--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38723BF7-70D2-48EC-9D0F-DB0A1468F3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C54A29-F45C-4CEA-A2A4-5E402D8C152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ingredients!$A$1:$E$1</definedName>
-    <definedName name="AvailableIngredients">Ingredients!$A$2:$A$66</definedName>
+    <definedName name="AvailableIngredients">Ingredients!$A$2:$A$85</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="263">
   <si>
     <t>recipe_name</t>
   </si>
@@ -717,6 +717,108 @@
   </si>
   <si>
     <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=peer#pdp_3074457345616678933</t>
+  </si>
+  <si>
+    <t>Smeerboter</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=smeerboter#pdp_3074457345616697901</t>
+  </si>
+  <si>
+    <t>Olijfolie</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=olijfolie#pdp_3074457345616710595</t>
+  </si>
+  <si>
+    <t>Portobello</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=portobello#pdp_3074457345616792889</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=geitenkaas#pdp_3074457345616691073</t>
+  </si>
+  <si>
+    <t>Geitenkaas</t>
+  </si>
+  <si>
+    <t>Perzik blik</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=perzik#pdp_3074457345616691971</t>
+  </si>
+  <si>
+    <t>Bieslook</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=bieslook#pdp_3074457345616679017</t>
+  </si>
+  <si>
+    <t>Honing</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=honing#pdp_3074457345616676761</t>
+  </si>
+  <si>
+    <t>Boter</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=solo+boter#pdp_3074457345616819913</t>
+  </si>
+  <si>
+    <t>Maïskolf</t>
+  </si>
+  <si>
+    <t>Veggieburger</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=veggieburger#pdp_3074457345616689301</t>
+  </si>
+  <si>
+    <t>Hamburgerbroodje</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=hamburgerbrood#pdp_3074457345616727761</t>
+  </si>
+  <si>
+    <t>Mozarella sneetjes</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=mozarella#pdp_3074457345616714403</t>
+  </si>
+  <si>
+    <t>Lookpoeder</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=knoflookpoeder#pdp_3074457345616826667</t>
+  </si>
+  <si>
+    <t>Citroensap</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=citroensap#pdp_3074457345616680837</t>
+  </si>
+  <si>
+    <t>BBQ Portobello met Perzik</t>
+  </si>
+  <si>
+    <t>Noten</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=amandelnoten#pdp_3074457345616678945</t>
+  </si>
+  <si>
+    <t>BBQ Maïskolven met misobieslook</t>
+  </si>
+  <si>
+    <t>Veggieburgers met komkommersalade</t>
+  </si>
+  <si>
+    <t>Mayonaise</t>
+  </si>
+  <si>
+    <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=mayonaise#pdp_3074457345616808183</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1193,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913751C-1BC7-493E-BB20-B30D7F548B56}">
   <dimension ref="A1:D1029"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.3671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.05078125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.9453125" bestFit="1" customWidth="1"/>
@@ -2770,78 +2872,298 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C120" s="2"/>
+      <c r="A120" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C121" s="2"/>
+      <c r="A121" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="2">
+        <v>50</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C122" s="2"/>
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="2">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C123" s="2"/>
+      <c r="A123" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C124" s="2"/>
+      <c r="A124" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C125" s="2"/>
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C126" s="2"/>
+      <c r="A126" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" s="2">
+        <v>75</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C127" s="2"/>
+      <c r="A127" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" s="2">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>259</v>
+      </c>
+      <c r="B128" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" s="2">
+        <v>100</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" s="2">
+        <v>50</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="2">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" s="2">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>260</v>
+      </c>
+      <c r="B134" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>260</v>
+      </c>
+      <c r="B135" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135" s="2">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" t="s">
+        <v>252</v>
+      </c>
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>260</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>260</v>
+      </c>
+      <c r="B139" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.55000000000000004">
@@ -5520,7 +5842,7 @@
   <dimension ref="A1:G319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5576,19 +5898,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2">
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="E3" s="2">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="s">
         <v>173</v>
@@ -5596,19 +5918,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
-        <v>51.4</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2">
-        <v>0.5</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>178</v>
@@ -5616,19 +5938,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2">
-        <v>23</v>
+        <v>0.26</v>
       </c>
       <c r="F5" t="s">
         <v>199</v>
@@ -5736,19 +6058,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="B11">
-        <v>230</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
       </c>
       <c r="D11" s="2">
-        <v>396</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
-        <v>5.9</v>
+        <v>0.01</v>
       </c>
       <c r="F11" t="s">
         <v>163</v>
@@ -5756,19 +6078,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
+        <v>230</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="2">
-        <v>26</v>
+        <v>396</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="F12" t="s">
         <v>166</v>
@@ -5776,19 +6098,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="B13">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="D13" s="2">
-        <v>352</v>
+        <v>700</v>
       </c>
       <c r="E13" s="2">
-        <v>13</v>
+        <v>0.01</v>
       </c>
       <c r="F13" t="s">
         <v>201</v>
@@ -5796,19 +6118,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B14">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>181</v>
@@ -5816,19 +6138,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>352</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>187</v>
@@ -5836,19 +6158,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2">
         <v>76</v>
       </c>
       <c r="E16" s="2">
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -5856,19 +6178,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="B17">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="D17" s="2">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2">
-        <v>12</v>
+        <v>0.01</v>
       </c>
       <c r="F17" t="s">
         <v>167</v>
@@ -5876,19 +6198,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
-        <v>158</v>
-      </c>
-      <c r="E18" s="2">
-        <v>12.9</v>
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>196</v>
@@ -5896,19 +6218,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>168</v>
@@ -5916,19 +6238,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B20">
-        <v>480</v>
+        <v>750</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>202</v>
@@ -5936,19 +6258,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2">
-        <v>328</v>
+        <v>158</v>
       </c>
       <c r="E21" s="2">
-        <v>14</v>
+        <v>12.9</v>
       </c>
       <c r="F21" t="s">
         <v>204</v>
@@ -5956,19 +6278,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>200</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>103</v>
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
       <c r="D22" s="2">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="E22" s="2">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>203</v>
@@ -5976,19 +6298,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="B23">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E23" s="2">
-        <v>0.8</v>
+        <v>9.5</v>
       </c>
       <c r="F23" t="s">
         <v>183</v>
@@ -5996,19 +6318,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="B24">
-        <v>1350</v>
+        <v>540</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D24" s="2">
-        <v>102</v>
+        <v>48.4</v>
       </c>
       <c r="E24" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>205</v>
@@ -6016,19 +6338,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>206</v>
@@ -6036,19 +6358,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B26">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>207</v>
@@ -6056,19 +6378,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="D27" s="2">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="E27" s="2">
-        <v>1.83</v>
+        <v>9.5</v>
       </c>
       <c r="F27" t="s">
         <v>208</v>
@@ -6076,19 +6398,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="B28">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="D28" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F28" t="s">
         <v>209</v>
@@ -6096,19 +6418,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B29">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2">
-        <v>60</v>
+        <v>328</v>
       </c>
       <c r="E29" s="2">
-        <v>2.4</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
         <v>210</v>
@@ -6116,19 +6438,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B30">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>147</v>
+        <v>200</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D30" s="2">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="E30" s="2">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="F30" t="s">
         <v>184</v>
@@ -6136,19 +6458,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B31">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="F31" t="s">
         <v>192</v>
@@ -6156,53 +6478,53 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B33">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D33" s="2">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -6210,19 +6532,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B35">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2">
-        <v>25</v>
+        <v>1.83</v>
       </c>
       <c r="F35" t="s">
         <v>195</v>
@@ -6230,19 +6552,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2">
-        <v>11.4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>212</v>
@@ -6250,19 +6572,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="B37">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="D37" s="2">
-        <v>22</v>
+        <v>0.1</v>
       </c>
       <c r="E37" s="2">
-        <v>1.3</v>
+        <v>0.01</v>
       </c>
       <c r="F37" t="s">
         <v>161</v>
@@ -6270,19 +6592,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B38">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
-        <v>573</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2">
-        <v>26</v>
+        <v>2.4</v>
       </c>
       <c r="F38" t="s">
         <v>165</v>
@@ -6290,19 +6612,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="B39">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="D39" s="2">
-        <v>280.5</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2">
-        <v>8.6999999999999993</v>
+        <v>3.4</v>
       </c>
       <c r="F39" t="s">
         <v>164</v>
@@ -6310,19 +6632,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="B40">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="D40" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="F40" t="s">
         <v>170</v>
@@ -6330,70 +6652,70 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="D41" s="2">
-        <v>371</v>
+        <v>480</v>
       </c>
       <c r="E41" s="2">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="2">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>500</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" s="2">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="B44">
-        <v>135</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="F44" t="s">
         <v>186</v>
@@ -6401,19 +6723,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
-        <v>37</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>39</v>
+        <v>118</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5.4</v>
       </c>
       <c r="F45" t="s">
         <v>213</v>
@@ -6421,19 +6743,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -6441,19 +6763,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="B47">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="D47" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="E47" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
         <v>171</v>
@@ -6461,19 +6783,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="B48">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D48" s="2">
-        <v>152</v>
+        <v>592</v>
       </c>
       <c r="E48" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
         <v>189</v>
@@ -6481,19 +6803,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="B49">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="D49" s="2">
-        <v>62</v>
+        <v>900</v>
       </c>
       <c r="E49" s="2">
-        <v>11</v>
+        <v>0.01</v>
       </c>
       <c r="F49" t="s">
         <v>159</v>
@@ -6501,19 +6823,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B50">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D50" s="2">
-        <v>87</v>
+        <v>371</v>
       </c>
       <c r="E50" s="2">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="F50" t="s">
         <v>215</v>
@@ -6521,19 +6843,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="E51" s="2">
-        <v>11.8</v>
+        <v>1.3</v>
       </c>
       <c r="F51" t="s">
         <v>216</v>
@@ -6541,19 +6863,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="B52">
-        <v>520</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="D52" s="2">
         <v>55</v>
       </c>
       <c r="E52" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F52" t="s">
         <v>160</v>
@@ -6561,19 +6883,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="B53">
-        <v>1000</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="D53" s="2">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="F53" t="s">
         <v>180</v>
@@ -6581,19 +6903,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B54">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="E54" s="2">
-        <v>0.01</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
         <v>217</v>
@@ -6601,19 +6923,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B55">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2">
-        <v>126.4</v>
+        <v>280.5</v>
       </c>
       <c r="E55" s="2">
-        <v>24</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F55" t="s">
         <v>191</v>
@@ -6621,19 +6943,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="B56">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="D56" s="2">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="E56" s="2">
-        <v>13.5</v>
+        <v>2.5</v>
       </c>
       <c r="F56" t="s">
         <v>190</v>
@@ -6641,19 +6963,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B57">
-        <v>65</v>
+        <v>1500</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E57" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F57" t="s">
         <v>182</v>
@@ -6661,19 +6983,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58">
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D58" s="2">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="E58" s="2">
-        <v>0.1</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
         <v>218</v>
@@ -6681,19 +7003,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="B59">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="E59" s="2">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="F59" t="s">
         <v>197</v>
@@ -6701,19 +7023,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B60">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D60" s="2">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>194</v>
@@ -6721,19 +7043,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B61">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E61" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>179</v>
@@ -6741,19 +7063,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2">
-        <v>289</v>
-      </c>
-      <c r="E62" s="2">
-        <v>9.3000000000000007</v>
+        <v>37</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F62" t="s">
         <v>188</v>
@@ -6761,19 +7083,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B63">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E63" s="2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
         <v>169</v>
@@ -6781,19 +7103,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B64">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D64" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
         <v>219</v>
@@ -6801,19 +7123,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E65" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
         <v>220</v>
@@ -6821,19 +7143,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B66">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D66" s="2">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E66" s="2">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
         <v>193</v>
@@ -6841,19 +7163,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B67">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D67" s="2">
-        <v>48.4</v>
+        <v>226</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F67" t="s">
         <v>224</v>
@@ -6861,19 +7183,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="B68">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="D68" s="2">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E68" s="2">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F68" t="s">
         <v>226</v>
@@ -6881,129 +7203,385 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="B69">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="D69" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70">
+        <v>500</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="2">
+        <v>354</v>
+      </c>
+      <c r="E70" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71">
+        <v>520</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="2">
+        <v>55</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>1000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="2">
+        <v>33</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73">
+        <v>1000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="2">
+        <v>399</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F73" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="2">
+        <v>126.4</v>
+      </c>
+      <c r="E74" s="2">
+        <v>24</v>
+      </c>
+      <c r="F74" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75">
+        <v>400</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="2">
+        <v>120</v>
+      </c>
+      <c r="E75" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="2">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="2">
+        <v>287</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78">
+        <v>500</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="2">
+        <v>51</v>
+      </c>
+      <c r="E78" s="2">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="2">
+        <v>170</v>
+      </c>
+      <c r="E79" s="2">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80">
+        <v>250</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="2">
+        <v>319</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="2">
+        <v>41</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>62</v>
+      </c>
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="2">
+        <v>289</v>
+      </c>
+      <c r="E82" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83">
+        <v>320</v>
+      </c>
+      <c r="C83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="2">
+        <v>57</v>
+      </c>
+      <c r="E83" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="2">
+        <v>122</v>
+      </c>
+      <c r="E84" s="2">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85">
+        <v>1000</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
@@ -7901,13 +8479,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{3BD61BB9-6DAA-4988-9059-527D17889229}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E64">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E85">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{C230D345-F0DD-40FC-9877-C6619E277302}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{2BE152EC-FA10-42CE-A269-FF71131F276F}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{C230D345-F0DD-40FC-9877-C6619E277302}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{2BE152EC-FA10-42CE-A269-FF71131F276F}"/>
     <hyperlink ref="F19" r:id="rId3" xr:uid="{3B07A23E-D71F-4F81-88D1-C29F5277FE90}"/>
     <hyperlink ref="F25" r:id="rId4" xr:uid="{5B5D4EAD-1EB8-427E-9377-A75C8D5CDD7E}"/>
   </hyperlinks>

--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\els.knockaert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C54A29-F45C-4CEA-A2A4-5E402D8C152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C942551-7EBF-4B14-AB83-CBDBA8A972BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="263">
   <si>
     <t>recipe_name</t>
   </si>
@@ -879,7 +879,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,9 +895,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -935,7 +935,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1041,7 +1041,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1183,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1191,21 +1191,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913751C-1BC7-493E-BB20-B30D7F548B56}">
-  <dimension ref="A1:D1029"/>
+  <dimension ref="A1:D1022"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.05078125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>124</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -2311,26 +2311,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2">
         <v>30</v>
@@ -2339,236 +2339,236 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D84" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="2">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2">
-        <v>60</v>
+        <v>0.17</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2">
-        <v>64</v>
+        <v>0.25</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2">
-        <v>0.17</v>
+        <v>50</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="D91" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>153</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="2">
-        <v>12.5</v>
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="2">
-        <v>12.5</v>
+        <v>7</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C97" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -2577,446 +2577,446 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>155</v>
       </c>
       <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="2">
         <v>10</v>
-      </c>
-      <c r="C100" s="2">
-        <v>50</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.25</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.17</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>221</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>221</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>221</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C109" s="2">
-        <v>0.17</v>
+        <v>12.5</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2">
-        <v>0.25</v>
+        <v>12.5</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2">
-        <v>0.5</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C112" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D112" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="C113" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="C114" s="2">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="D114" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B115" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="C115" s="2">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="C116" s="2">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="C117" s="2">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C120" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C121" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C122" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C123" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C125" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="C126" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" t="s">
         <v>239</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C128" s="2">
         <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" t="s">
-        <v>259</v>
-      </c>
-      <c r="B128" t="s">
-        <v>243</v>
-      </c>
-      <c r="C128" s="2">
-        <v>100</v>
       </c>
       <c r="D128" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>260</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C129" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="C130" s="2">
         <v>1</v>
@@ -3025,2811 +3025,2713 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="C131" s="2">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C132" s="2">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" t="s">
-        <v>260</v>
-      </c>
-      <c r="B133" t="s">
-        <v>254</v>
-      </c>
-      <c r="C133" s="2">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D134" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" t="s">
-        <v>260</v>
-      </c>
-      <c r="B135" t="s">
-        <v>239</v>
-      </c>
-      <c r="C135" s="2">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" t="s">
-        <v>260</v>
-      </c>
-      <c r="B136" t="s">
-        <v>252</v>
-      </c>
-      <c r="C136" s="2">
-        <v>5</v>
-      </c>
-      <c r="D136" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" t="s">
-        <v>260</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" t="s">
-        <v>260</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" t="s">
-        <v>260</v>
-      </c>
-      <c r="B139" t="s">
-        <v>250</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C295" s="2"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C310" s="2"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C311" s="2"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C312" s="2"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C314" s="2"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C315" s="2"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C316" s="2"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C317" s="2"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C318" s="2"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C319" s="2"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C320" s="2"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C321" s="2"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C351" s="2"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C353" s="2"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C354" s="2"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C355" s="2"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C356" s="2"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C357" s="2"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C358" s="2"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C359" s="2"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C360" s="2"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C361" s="2"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C363" s="2"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C364" s="2"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C365" s="2"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C366" s="2"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C368" s="2"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C369" s="2"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C370" s="2"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C371" s="2"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C372" s="2"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C373" s="2"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C374" s="2"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C375" s="2"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C376" s="2"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C377" s="2"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C379" s="2"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C380" s="2"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C381" s="2"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C382" s="2"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C385" s="2"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C416" s="2"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C417" s="2"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C420" s="2"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C423" s="2"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C427" s="2"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C429" s="2"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C431" s="2"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C432" s="2"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C433" s="2"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C434" s="2"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C435" s="2"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C436" s="2"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C437" s="2"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C438" s="2"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C439" s="2"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C440" s="2"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C442" s="2"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C443" s="2"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C444" s="2"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C445" s="2"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C446" s="2"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C447" s="2"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C448" s="2"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C450" s="2"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C451" s="2"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C452" s="2"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C453" s="2"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C454" s="2"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C456" s="2"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C457" s="2"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C458" s="2"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C459" s="2"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C460" s="2"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C461" s="2"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C464" s="2"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C465" s="2"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C466" s="2"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C467" s="2"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C468" s="2"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C469" s="2"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C470" s="2"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C471" s="2"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C472" s="2"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C473" s="2"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C474" s="2"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C475" s="2"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C476" s="2"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C477" s="2"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C478" s="2"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C480" s="2"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C481" s="2"/>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C482" s="2"/>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C483" s="2"/>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C484" s="2"/>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C485" s="2"/>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C487" s="2"/>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C488" s="2"/>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C489" s="2"/>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C490" s="2"/>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C491" s="2"/>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C492" s="2"/>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C493" s="2"/>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C494" s="2"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C495" s="2"/>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C496" s="2"/>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C497" s="2"/>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C498" s="2"/>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C503" s="2"/>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C507" s="2"/>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C508" s="2"/>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C509" s="2"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C510" s="2"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C511" s="2"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C513" s="2"/>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C515" s="2"/>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C518" s="2"/>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C519" s="2"/>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C520" s="2"/>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C523" s="2"/>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C524" s="2"/>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C525" s="2"/>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C528" s="2"/>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C529" s="2"/>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C530" s="2"/>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C531" s="2"/>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C532" s="2"/>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C533" s="2"/>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C534" s="2"/>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C535" s="2"/>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C536" s="2"/>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C538" s="2"/>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C539" s="2"/>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C540" s="2"/>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C541" s="2"/>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C542" s="2"/>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C543" s="2"/>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C544" s="2"/>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C550" s="2"/>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C554" s="2"/>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C558" s="2"/>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C560" s="2"/>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C561" s="2"/>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C562" s="2"/>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C566" s="2"/>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C570" s="2"/>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C574" s="2"/>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C576" s="2"/>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C577" s="2"/>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C578" s="2"/>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C579" s="2"/>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C580" s="2"/>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C581" s="2"/>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C582" s="2"/>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C583" s="2"/>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C584" s="2"/>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C585" s="2"/>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C586" s="2"/>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C587" s="2"/>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C588" s="2"/>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C589" s="2"/>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C590" s="2"/>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C591" s="2"/>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C592" s="2"/>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C593" s="2"/>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C594" s="2"/>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C595" s="2"/>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C596" s="2"/>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C597" s="2"/>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C598" s="2"/>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C599" s="2"/>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C600" s="2"/>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C601" s="2"/>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C602" s="2"/>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C603" s="2"/>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C604" s="2"/>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C605" s="2"/>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C606" s="2"/>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C607" s="2"/>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C608" s="2"/>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C609" s="2"/>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C610" s="2"/>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C611" s="2"/>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C612" s="2"/>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C613" s="2"/>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C614" s="2"/>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C615" s="2"/>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C616" s="2"/>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C617" s="2"/>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C618" s="2"/>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C619" s="2"/>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C620" s="2"/>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C621" s="2"/>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C622" s="2"/>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C623" s="2"/>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C624" s="2"/>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C625" s="2"/>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C627" s="2"/>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C628" s="2"/>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C629" s="2"/>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C630" s="2"/>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C631" s="2"/>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C632" s="2"/>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C633" s="2"/>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C634" s="2"/>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C635" s="2"/>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C636" s="2"/>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C637" s="2"/>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C638" s="2"/>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C639" s="2"/>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C640" s="2"/>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C641" s="2"/>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C642" s="2"/>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C643" s="2"/>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C644" s="2"/>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C645" s="2"/>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C646" s="2"/>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C647" s="2"/>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C648" s="2"/>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C649" s="2"/>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C650" s="2"/>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C651" s="2"/>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C652" s="2"/>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C653" s="2"/>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C654" s="2"/>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C655" s="2"/>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C656" s="2"/>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C657" s="2"/>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C658" s="2"/>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C659" s="2"/>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C660" s="2"/>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C661" s="2"/>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C662" s="2"/>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C663" s="2"/>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C664" s="2"/>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C665" s="2"/>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C666" s="2"/>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C667" s="2"/>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C668" s="2"/>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C669" s="2"/>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C671" s="2"/>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C672" s="2"/>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C673" s="2"/>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C674" s="2"/>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C675" s="2"/>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C676" s="2"/>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C677" s="2"/>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C678" s="2"/>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C679" s="2"/>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C680" s="2"/>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C681" s="2"/>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C682" s="2"/>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C683" s="2"/>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C684" s="2"/>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C685" s="2"/>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C686" s="2"/>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C687" s="2"/>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C688" s="2"/>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C689" s="2"/>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C690" s="2"/>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C691" s="2"/>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C692" s="2"/>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C693" s="2"/>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C694" s="2"/>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C695" s="2"/>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C696" s="2"/>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C697" s="2"/>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C698" s="2"/>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C699" s="2"/>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C700" s="2"/>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C701" s="2"/>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C702" s="2"/>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C703" s="2"/>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C704" s="2"/>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C705" s="2"/>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C706" s="2"/>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C707" s="2"/>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C708" s="2"/>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C709" s="2"/>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C710" s="2"/>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C711" s="2"/>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C712" s="2"/>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C713" s="2"/>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C714" s="2"/>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C715" s="2"/>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C716" s="2"/>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C717" s="2"/>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C718" s="2"/>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C719" s="2"/>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C720" s="2"/>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C721" s="2"/>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C722" s="2"/>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C723" s="2"/>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C724" s="2"/>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C725" s="2"/>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C726" s="2"/>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C727" s="2"/>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C728" s="2"/>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C729" s="2"/>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C730" s="2"/>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C731" s="2"/>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C732" s="2"/>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C733" s="2"/>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C734" s="2"/>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C735" s="2"/>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C736" s="2"/>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C737" s="2"/>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C738" s="2"/>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C739" s="2"/>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C740" s="2"/>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C741" s="2"/>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C742" s="2"/>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C743" s="2"/>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C744" s="2"/>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C745" s="2"/>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C746" s="2"/>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C747" s="2"/>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C748" s="2"/>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C749" s="2"/>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C750" s="2"/>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C751" s="2"/>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C752" s="2"/>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C753" s="2"/>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C754" s="2"/>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C755" s="2"/>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C756" s="2"/>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C757" s="2"/>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C758" s="2"/>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C759" s="2"/>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C760" s="2"/>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C761" s="2"/>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C762" s="2"/>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C763" s="2"/>
     </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C764" s="2"/>
     </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C765" s="2"/>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C766" s="2"/>
     </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C767" s="2"/>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C768" s="2"/>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C769" s="2"/>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C770" s="2"/>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C771" s="2"/>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C772" s="2"/>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C773" s="2"/>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C774" s="2"/>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C775" s="2"/>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C776" s="2"/>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C777" s="2"/>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C778" s="2"/>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C779" s="2"/>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C780" s="2"/>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C781" s="2"/>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C782" s="2"/>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C783" s="2"/>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C784" s="2"/>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C785" s="2"/>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C786" s="2"/>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C787" s="2"/>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C788" s="2"/>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C789" s="2"/>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C790" s="2"/>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C791" s="2"/>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C792" s="2"/>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C793" s="2"/>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C794" s="2"/>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C795" s="2"/>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C796" s="2"/>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C797" s="2"/>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C798" s="2"/>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C799" s="2"/>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C800" s="2"/>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C801" s="2"/>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C802" s="2"/>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C803" s="2"/>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C804" s="2"/>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C805" s="2"/>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C806" s="2"/>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C807" s="2"/>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C808" s="2"/>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C809" s="2"/>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C810" s="2"/>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C811" s="2"/>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C812" s="2"/>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C813" s="2"/>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C814" s="2"/>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C815" s="2"/>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C816" s="2"/>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C817" s="2"/>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C818" s="2"/>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C819" s="2"/>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C820" s="2"/>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C821" s="2"/>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C822" s="2"/>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C823" s="2"/>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C824" s="2"/>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C825" s="2"/>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C826" s="2"/>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C827" s="2"/>
     </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C828" s="2"/>
     </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C829" s="2"/>
     </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C830" s="2"/>
     </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C831" s="2"/>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C832" s="2"/>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C833" s="2"/>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C834" s="2"/>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C835" s="2"/>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C836" s="2"/>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C837" s="2"/>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C838" s="2"/>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C839" s="2"/>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C840" s="2"/>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C841" s="2"/>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C842" s="2"/>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C843" s="2"/>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C844" s="2"/>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C845" s="2"/>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C846" s="2"/>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C847" s="2"/>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C848" s="2"/>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C849" s="2"/>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C850" s="2"/>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C851" s="2"/>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C852" s="2"/>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C853" s="2"/>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C854" s="2"/>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C855" s="2"/>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C856" s="2"/>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C857" s="2"/>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C858" s="2"/>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C859" s="2"/>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C860" s="2"/>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C861" s="2"/>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C862" s="2"/>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C863" s="2"/>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C864" s="2"/>
     </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C865" s="2"/>
     </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C866" s="2"/>
     </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C867" s="2"/>
     </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C868" s="2"/>
     </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C869" s="2"/>
     </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C870" s="2"/>
     </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C871" s="2"/>
     </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C872" s="2"/>
     </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C873" s="2"/>
     </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C874" s="2"/>
     </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C875" s="2"/>
     </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C876" s="2"/>
     </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C877" s="2"/>
     </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C878" s="2"/>
     </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C879" s="2"/>
     </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C880" s="2"/>
     </row>
-    <row r="881" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C881" s="2"/>
     </row>
-    <row r="882" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C882" s="2"/>
     </row>
-    <row r="883" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C883" s="2"/>
     </row>
-    <row r="884" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C884" s="2"/>
     </row>
-    <row r="885" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C885" s="2"/>
     </row>
-    <row r="886" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C886" s="2"/>
     </row>
-    <row r="887" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C887" s="2"/>
     </row>
-    <row r="888" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C888" s="2"/>
     </row>
-    <row r="889" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C889" s="2"/>
     </row>
-    <row r="890" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C890" s="2"/>
     </row>
-    <row r="891" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C891" s="2"/>
     </row>
-    <row r="892" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C892" s="2"/>
     </row>
-    <row r="893" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C893" s="2"/>
     </row>
-    <row r="894" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C894" s="2"/>
     </row>
-    <row r="895" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C895" s="2"/>
     </row>
-    <row r="896" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C896" s="2"/>
     </row>
-    <row r="897" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C897" s="2"/>
     </row>
-    <row r="898" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C898" s="2"/>
     </row>
-    <row r="899" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C899" s="2"/>
     </row>
-    <row r="900" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C900" s="2"/>
     </row>
-    <row r="901" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C901" s="2"/>
     </row>
-    <row r="902" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C902" s="2"/>
     </row>
-    <row r="903" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C903" s="2"/>
     </row>
-    <row r="904" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C904" s="2"/>
     </row>
-    <row r="905" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C905" s="2"/>
     </row>
-    <row r="906" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C906" s="2"/>
     </row>
-    <row r="907" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C907" s="2"/>
     </row>
-    <row r="908" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C908" s="2"/>
     </row>
-    <row r="909" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C909" s="2"/>
     </row>
-    <row r="910" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C910" s="2"/>
     </row>
-    <row r="911" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C911" s="2"/>
     </row>
-    <row r="912" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C912" s="2"/>
     </row>
-    <row r="913" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C913" s="2"/>
     </row>
-    <row r="914" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C914" s="2"/>
     </row>
-    <row r="915" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C915" s="2"/>
     </row>
-    <row r="916" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C916" s="2"/>
     </row>
-    <row r="917" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C917" s="2"/>
     </row>
-    <row r="918" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C918" s="2"/>
     </row>
-    <row r="919" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C919" s="2"/>
     </row>
-    <row r="920" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C920" s="2"/>
     </row>
-    <row r="921" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C921" s="2"/>
     </row>
-    <row r="922" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C922" s="2"/>
     </row>
-    <row r="923" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C923" s="2"/>
     </row>
-    <row r="924" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C924" s="2"/>
     </row>
-    <row r="925" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C925" s="2"/>
     </row>
-    <row r="926" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C926" s="2"/>
     </row>
-    <row r="927" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C927" s="2"/>
     </row>
-    <row r="928" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C928" s="2"/>
     </row>
-    <row r="929" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C929" s="2"/>
     </row>
-    <row r="930" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C930" s="2"/>
     </row>
-    <row r="931" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C931" s="2"/>
     </row>
-    <row r="932" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C932" s="2"/>
     </row>
-    <row r="933" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C933" s="2"/>
     </row>
-    <row r="934" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C934" s="2"/>
     </row>
-    <row r="935" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C935" s="2"/>
     </row>
-    <row r="936" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C936" s="2"/>
     </row>
-    <row r="937" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C937" s="2"/>
     </row>
-    <row r="938" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C938" s="2"/>
     </row>
-    <row r="939" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C939" s="2"/>
     </row>
-    <row r="940" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C940" s="2"/>
     </row>
-    <row r="941" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C941" s="2"/>
     </row>
-    <row r="942" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C942" s="2"/>
     </row>
-    <row r="943" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C943" s="2"/>
     </row>
-    <row r="944" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C944" s="2"/>
     </row>
-    <row r="945" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C945" s="2"/>
     </row>
-    <row r="946" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C946" s="2"/>
     </row>
-    <row r="947" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="947" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C947" s="2"/>
     </row>
-    <row r="948" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="948" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C948" s="2"/>
     </row>
-    <row r="949" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="949" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C949" s="2"/>
     </row>
-    <row r="950" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="950" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C950" s="2"/>
     </row>
-    <row r="951" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="951" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C951" s="2"/>
     </row>
-    <row r="952" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="952" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C952" s="2"/>
     </row>
-    <row r="953" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="953" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C953" s="2"/>
     </row>
-    <row r="954" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="954" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C954" s="2"/>
     </row>
-    <row r="955" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="955" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C955" s="2"/>
     </row>
-    <row r="956" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="956" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C956" s="2"/>
     </row>
-    <row r="957" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="957" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C957" s="2"/>
     </row>
-    <row r="958" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="958" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C958" s="2"/>
     </row>
-    <row r="959" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="959" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C959" s="2"/>
     </row>
-    <row r="960" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="960" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C960" s="2"/>
     </row>
-    <row r="961" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="961" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C961" s="2"/>
     </row>
-    <row r="962" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="962" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C962" s="2"/>
     </row>
-    <row r="963" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="963" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C963" s="2"/>
     </row>
-    <row r="964" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="964" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C964" s="2"/>
     </row>
-    <row r="965" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="965" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C965" s="2"/>
     </row>
-    <row r="966" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="966" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C966" s="2"/>
     </row>
-    <row r="967" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="967" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C967" s="2"/>
     </row>
-    <row r="968" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="968" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C968" s="2"/>
     </row>
-    <row r="969" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="969" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C969" s="2"/>
     </row>
-    <row r="970" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="970" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C970" s="2"/>
     </row>
-    <row r="971" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="971" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C971" s="2"/>
     </row>
-    <row r="972" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="972" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C972" s="2"/>
     </row>
-    <row r="973" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="973" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C973" s="2"/>
     </row>
-    <row r="974" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="974" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C974" s="2"/>
     </row>
-    <row r="975" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="975" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C975" s="2"/>
     </row>
-    <row r="976" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="976" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C976" s="2"/>
     </row>
-    <row r="977" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="977" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C977" s="2"/>
     </row>
-    <row r="978" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="978" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C978" s="2"/>
     </row>
-    <row r="979" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="979" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C979" s="2"/>
     </row>
-    <row r="980" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="980" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C980" s="2"/>
     </row>
-    <row r="981" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="981" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C981" s="2"/>
     </row>
-    <row r="982" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="982" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C982" s="2"/>
     </row>
-    <row r="983" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="983" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C983" s="2"/>
     </row>
-    <row r="984" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="984" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C984" s="2"/>
     </row>
-    <row r="985" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="985" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C985" s="2"/>
     </row>
-    <row r="986" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="986" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C986" s="2"/>
     </row>
-    <row r="987" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="987" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C987" s="2"/>
     </row>
-    <row r="988" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="988" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C988" s="2"/>
     </row>
-    <row r="989" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="989" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C989" s="2"/>
     </row>
-    <row r="990" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="990" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C990" s="2"/>
     </row>
-    <row r="991" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="991" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C991" s="2"/>
     </row>
-    <row r="992" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="992" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C992" s="2"/>
     </row>
-    <row r="993" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="993" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C993" s="2"/>
     </row>
-    <row r="994" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="994" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C994" s="2"/>
     </row>
-    <row r="995" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="995" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C995" s="2"/>
     </row>
-    <row r="996" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="996" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C996" s="2"/>
     </row>
-    <row r="997" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="997" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C997" s="2"/>
     </row>
-    <row r="998" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="998" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C998" s="2"/>
     </row>
-    <row r="999" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="999" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C999" s="2"/>
     </row>
-    <row r="1000" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1000" s="2"/>
     </row>
-    <row r="1001" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1001" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1001" s="2"/>
     </row>
-    <row r="1002" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1002" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1002" s="2"/>
     </row>
-    <row r="1003" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1003" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1003" s="2"/>
     </row>
-    <row r="1004" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1004" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1004" s="2"/>
     </row>
-    <row r="1005" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1005" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1005" s="2"/>
     </row>
-    <row r="1006" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1006" s="2"/>
     </row>
-    <row r="1007" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1007" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1007" s="2"/>
     </row>
-    <row r="1008" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1008" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1008" s="2"/>
     </row>
-    <row r="1009" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1009" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1009" s="2"/>
     </row>
-    <row r="1010" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1010" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1010" s="2"/>
     </row>
-    <row r="1011" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1011" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1011" s="2"/>
     </row>
-    <row r="1012" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1012" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1012" s="2"/>
     </row>
-    <row r="1013" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1013" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1013" s="2"/>
     </row>
-    <row r="1014" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1014" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1014" s="2"/>
     </row>
-    <row r="1015" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1015" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1015" s="2"/>
     </row>
-    <row r="1016" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1016" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1016" s="2"/>
     </row>
-    <row r="1017" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1017" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1017" s="2"/>
     </row>
-    <row r="1018" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1018" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1018" s="2"/>
     </row>
-    <row r="1019" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1019" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1019" s="2"/>
     </row>
-    <row r="1020" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1020" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1020" s="2"/>
     </row>
-    <row r="1021" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1021" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1021" s="2"/>
     </row>
-    <row r="1022" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1022" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1022" s="2"/>
-    </row>
-    <row r="1023" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1023" s="2"/>
-    </row>
-    <row r="1024" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1024" s="2"/>
-    </row>
-    <row r="1025" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1025" s="2"/>
-    </row>
-    <row r="1026" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1026" s="2"/>
-    </row>
-    <row r="1027" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1027" s="2"/>
-    </row>
-    <row r="1028" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1028" s="2"/>
-    </row>
-    <row r="1029" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1029" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8F3EA22A-CD47-4012-8C34-7098D7188A20}">
       <formula1>"AvailableIngredients"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E12:E13 B2:B316" xr:uid="{531EAE80-D783-4FC7-BDF2-C7079DB0C433}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E12:E13 B2:B309" xr:uid="{531EAE80-D783-4FC7-BDF2-C7079DB0C433}">
       <formula1>AvailableIngredients</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D358" xr:uid="{72EAB95F-A45A-48B7-9B88-98CD37EBAB43}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D351" xr:uid="{72EAB95F-A45A-48B7-9B88-98CD37EBAB43}">
       <formula1>"u,g"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5841,21 +5743,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD61BB9-6DAA-4988-9059-527D17889229}">
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83984375" customWidth="1"/>
-    <col min="2" max="2" width="11.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.734375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5876,7 +5778,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -5896,7 +5798,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -5916,7 +5818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -5936,7 +5838,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -5956,7 +5858,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -5976,7 +5878,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5996,7 +5898,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6016,7 +5918,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -6036,7 +5938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -6056,7 +5958,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -6076,7 +5978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -6096,7 +5998,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -6116,7 +6018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -6136,7 +6038,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -6156,7 +6058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -6176,7 +6078,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -6196,7 +6098,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -6216,7 +6118,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -6236,7 +6138,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -6256,7 +6158,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -6276,7 +6178,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -6296,7 +6198,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -6316,7 +6218,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -6336,7 +6238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>225</v>
       </c>
@@ -6356,7 +6258,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -6376,7 +6278,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>248</v>
       </c>
@@ -6396,7 +6298,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -6416,7 +6318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -6436,7 +6338,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -6456,7 +6358,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -6476,7 +6378,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -6493,7 +6395,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -6510,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -6530,7 +6432,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -6550,7 +6452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -6570,7 +6472,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>252</v>
       </c>
@@ -6590,7 +6492,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -6610,7 +6512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -6630,7 +6532,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -6650,7 +6552,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>261</v>
       </c>
@@ -6667,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -6684,7 +6586,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -6701,7 +6603,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -6721,7 +6623,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -6741,7 +6643,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -6761,7 +6663,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>250</v>
       </c>
@@ -6781,7 +6683,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>257</v>
       </c>
@@ -6801,7 +6703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -6821,7 +6723,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -6841,7 +6743,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -6861,7 +6763,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>227</v>
       </c>
@@ -6881,7 +6783,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>237</v>
       </c>
@@ -6901,7 +6803,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -6921,7 +6823,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -6941,7 +6843,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -6961,7 +6863,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6981,7 +6883,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -7001,7 +6903,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -7021,7 +6923,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -7041,7 +6943,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -7061,7 +6963,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -7081,7 +6983,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -7101,7 +7003,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -7121,7 +7023,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -7141,7 +7043,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>140</v>
       </c>
@@ -7161,7 +7063,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>229</v>
       </c>
@@ -7181,7 +7083,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -7201,7 +7103,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -7221,7 +7123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -7241,7 +7143,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -7261,7 +7163,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -7281,7 +7183,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -7301,7 +7203,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -7321,7 +7223,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -7341,7 +7243,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -7361,7 +7263,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -7381,7 +7283,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -7401,7 +7303,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>246</v>
       </c>
@@ -7421,7 +7323,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -7441,7 +7343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -7461,7 +7363,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -7481,7 +7383,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -7501,7 +7403,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -7521,7 +7423,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>57</v>
       </c>
@@ -7541,939 +7443,939 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
     </row>

--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C54A29-F45C-4CEA-A2A4-5E402D8C152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533AA94F-C998-4E46-97FB-882F55CDE611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="263">
   <si>
     <t>recipe_name</t>
   </si>
@@ -1191,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913751C-1BC7-493E-BB20-B30D7F548B56}">
-  <dimension ref="A1:D1029"/>
+  <dimension ref="A1:D1022"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2316,13 +2316,13 @@
         <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2">
         <v>30</v>
@@ -2344,10 +2344,10 @@
         <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
@@ -2355,44 +2355,44 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2">
-        <v>30</v>
+        <v>0.25</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2">
-        <v>60</v>
+        <v>0.17</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2400,13 +2400,13 @@
         <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2">
-        <v>64</v>
+        <v>0.25</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2414,10 +2414,10 @@
         <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
@@ -2428,13 +2428,13 @@
         <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2">
-        <v>0.17</v>
+        <v>50</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2442,13 +2442,13 @@
         <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2456,13 +2456,13 @@
         <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2470,10 +2470,10 @@
         <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C91" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D91" t="s">
         <v>20</v>
@@ -2484,10 +2484,10 @@
         <v>153</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="D92" t="s">
         <v>20</v>
@@ -2495,72 +2495,72 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="2">
-        <v>12.5</v>
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="2">
-        <v>12.5</v>
+        <v>7</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C97" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2568,7 +2568,7 @@
         <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -2582,13 +2582,13 @@
         <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2596,10 +2596,10 @@
         <v>155</v>
       </c>
       <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="2">
         <v>10</v>
-      </c>
-      <c r="C100" s="2">
-        <v>50</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2610,83 +2610,83 @@
         <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.25</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.17</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2694,10 +2694,10 @@
         <v>221</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
         <v>20</v>
@@ -2708,13 +2708,13 @@
         <v>221</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2722,13 +2722,13 @@
         <v>221</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C109" s="2">
-        <v>0.17</v>
+        <v>12.5</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2736,13 +2736,13 @@
         <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C110" s="2">
-        <v>0.25</v>
+        <v>12.5</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2750,13 +2750,13 @@
         <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2">
-        <v>0.5</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2764,10 +2764,10 @@
         <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C112" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D112" t="s">
         <v>20</v>
@@ -2775,27 +2775,27 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="C113" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="C114" s="2">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="D114" t="s">
         <v>20</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B115" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="C115" s="2">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
         <v>20</v>
@@ -2817,27 +2817,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="C116" s="2">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="C117" s="2">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
@@ -2845,27 +2845,27 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
@@ -2873,27 +2873,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C120" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C121" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
         <v>20</v>
@@ -2901,27 +2901,27 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C122" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C123" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
         <v>16</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
         <v>20</v>
@@ -2943,27 +2943,27 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C125" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="C126" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
@@ -2971,27 +2971,27 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="C127" s="2">
-        <v>15</v>
+        <v>0.25</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C128" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
         <v>20</v>
@@ -3002,13 +3002,13 @@
         <v>260</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C129" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3016,7 +3016,7 @@
         <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="C130" s="2">
         <v>1</v>
@@ -3030,13 +3030,13 @@
         <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="C131" s="2">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3044,112 +3044,35 @@
         <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C132" s="2">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" t="s">
-        <v>260</v>
-      </c>
-      <c r="B133" t="s">
-        <v>254</v>
-      </c>
-      <c r="C133" s="2">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>20</v>
-      </c>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" t="s">
-        <v>260</v>
-      </c>
-      <c r="B135" t="s">
-        <v>239</v>
-      </c>
-      <c r="C135" s="2">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>20</v>
-      </c>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" t="s">
-        <v>260</v>
-      </c>
-      <c r="B136" t="s">
-        <v>252</v>
-      </c>
-      <c r="C136" s="2">
-        <v>5</v>
-      </c>
-      <c r="D136" t="s">
-        <v>20</v>
-      </c>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" t="s">
-        <v>260</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>16</v>
-      </c>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" t="s">
-        <v>260</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" t="s">
-        <v>260</v>
-      </c>
-      <c r="B139" t="s">
-        <v>250</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C140" s="2"/>
@@ -5799,37 +5722,16 @@
     </row>
     <row r="1022" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C1022" s="2"/>
-    </row>
-    <row r="1023" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1023" s="2"/>
-    </row>
-    <row r="1024" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1024" s="2"/>
-    </row>
-    <row r="1025" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1025" s="2"/>
-    </row>
-    <row r="1026" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1026" s="2"/>
-    </row>
-    <row r="1027" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1027" s="2"/>
-    </row>
-    <row r="1028" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1028" s="2"/>
-    </row>
-    <row r="1029" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1029" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8F3EA22A-CD47-4012-8C34-7098D7188A20}">
       <formula1>"AvailableIngredients"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E12:E13 B2:B316" xr:uid="{531EAE80-D783-4FC7-BDF2-C7079DB0C433}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E12:E13 B2:B309" xr:uid="{531EAE80-D783-4FC7-BDF2-C7079DB0C433}">
       <formula1>AvailableIngredients</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D358" xr:uid="{72EAB95F-A45A-48B7-9B88-98CD37EBAB43}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D351" xr:uid="{72EAB95F-A45A-48B7-9B88-98CD37EBAB43}">
       <formula1>"u,g"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5841,7 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD61BB9-6DAA-4988-9059-527D17889229}">
   <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>

--- a/Excel_files/data.xlsx
+++ b/Excel_files/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533AA94F-C998-4E46-97FB-882F55CDE611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B875A-B06B-40C1-B8AE-64B57B02C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{F538357A-919F-47F2-8670-73C1BC41B637}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="264">
   <si>
     <t>recipe_name</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>https://www.collectandgo.be/colruyt/nl/zoek?searchTerm=mayonaise#pdp_3074457345616808183</t>
+  </si>
+  <si>
+    <t>Quiche (tofu)</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913751C-1BC7-493E-BB20-B30D7F548B56}">
   <dimension ref="A1:D1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD113"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3054,28 +3057,116 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C133" s="2"/>
+      <c r="A133" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C134" s="2"/>
+      <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="2">
+        <v>39</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C135" s="2"/>
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="2">
+        <v>25</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C136" s="2"/>
+      <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="2">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C137" s="2"/>
+      <c r="A137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C138" s="2"/>
+      <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>71</v>
+      </c>
+      <c r="C138" s="2">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C139" s="2"/>
+      <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="2">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C140" s="2"/>
+      <c r="A140" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" t="s">
+        <v>89</v>
+      </c>
+      <c r="C140" s="2">
+        <v>100</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C141" s="2"/>
